--- a/biology/Botanique/Pink_Grootendorst/Pink_Grootendorst.xlsx
+++ b/biology/Botanique/Pink_Grootendorst/Pink_Grootendorst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pink Grootendorst est un cultivar de rosier buisson de couleur rose à fleurs semi-doubles rappelant l'œillet. Cet hybride diploïde de la famille de Rosa rugosa a été obtenu en 1923 par le Néerlandais F.J. Grootendorst à partir du cultivar du même nom 'F.J. Grootendorst' (Rosa rugosa, De Goey, 1918).
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier résistant à la pollution, au froid et aux maladies est souvent utilisé pour fleurir les terrains difficiles (secs, pauvres, etc.).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut former des haies vigoureuses jusqu'à 1,50 m, croissant en largeur jusqu'à 1 m en moyenne, et fleurit abondamment de juin jusqu'à l'automne. Ses fleurs non parfumées ont de trente à quarante pétales et mesurent de 4 à 5 cm de diamètre. Son feuillage est brillant et vert-foncé.
 </t>
@@ -574,7 +590,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1993 : Médaille du mérite de la Royal Horticultural Society.</t>
         </is>
